--- a/check/src/main/webapp/file/数据源导入模板.xlsx
+++ b/check/src/main/webapp/file/数据源导入模板.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>物品价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,19 +132,35 @@
     <t>10793149592842646</t>
   </si>
   <si>
-    <t>注：以上为测试数据导入时需要删除，红色为必填项</t>
+    <t>注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、以上为测试数据导入时需要删除，红色为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、发货日期格式为短日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、订单编号和商店id为文本或常规格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +226,20 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -291,7 +321,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
@@ -591,7 +628,7 @@
     <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -628,8 +665,11 @@
       <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="10">
         <v>42850</v>
       </c>
@@ -657,7 +697,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="10">
         <v>42850</v>
       </c>
@@ -685,9 +725,22 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/check/src/main/webapp/file/数据源导入模板.xlsx
+++ b/check/src/main/webapp/file/数据源导入模板.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -326,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +620,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/check/src/main/webapp/file/数据源导入模板.xlsx
+++ b/check/src/main/webapp/file/数据源导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>物品价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>一段码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、一段码和省份必须有一个，两个都没有是不会导入成功的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -335,6 +343,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -636,7 +647,7 @@
     <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:14" ht="14.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -676,8 +687,11 @@
       <c r="M1" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="N1" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="10">
         <v>42850</v>
       </c>
@@ -705,7 +719,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="10">
         <v>42850</v>
       </c>
@@ -733,7 +747,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -741,14 +755,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="B7" s="14" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/check/src/main/webapp/file/数据源导入模板.xlsx
+++ b/check/src/main/webapp/file/数据源导入模板.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,16 +61,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>物品价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发货日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,18 +162,26 @@
   </si>
   <si>
     <t>713968246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、注意所有的列，和单元格切勿使用函数，否则数据将不能正常导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,10 +650,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
@@ -662,132 +667,134 @@
     <col min="13" max="13" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>42850</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11">
         <v>791040</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>42850</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11">
         <v>791040</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="13" t="s">
-        <v>21</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/check/src/main/webapp/file/数据源导入模板.xlsx
+++ b/check/src/main/webapp/file/数据源导入模板.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>物品价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +141,6 @@
   </si>
   <si>
     <t>一段码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,6 +256,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -268,6 +264,7 @@
       <b/>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -362,9 +359,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,9 +661,9 @@
     <col min="13" max="13" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -707,11 +701,8 @@
       <c r="M1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>42850</v>
       </c>
@@ -733,16 +724,16 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>42850</v>
       </c>
@@ -764,16 +755,16 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -781,19 +772,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
